--- a/Code/Results/Cases/Case_5_225/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_225/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.66528670649955</v>
+        <v>10.97977521793026</v>
       </c>
       <c r="C2">
-        <v>7.584269858305796</v>
+        <v>4.577166254778756</v>
       </c>
       <c r="D2">
-        <v>7.429943395163502</v>
+        <v>8.869783142047433</v>
       </c>
       <c r="E2">
-        <v>10.98040293609763</v>
+        <v>13.5665949532071</v>
       </c>
       <c r="F2">
-        <v>24.47754382871722</v>
+        <v>34.7032031195418</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.430289375887009</v>
+        <v>10.01107948678177</v>
       </c>
       <c r="K2">
-        <v>12.0798181158574</v>
+        <v>10.32542902512413</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.46701179089674</v>
+        <v>26.3942880787376</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,28 +462,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.76055289387669</v>
+        <v>10.70408834924434</v>
       </c>
       <c r="C3">
-        <v>7.205572925689613</v>
+        <v>4.368798852750527</v>
       </c>
       <c r="D3">
-        <v>7.045188856918612</v>
+        <v>8.802820155991634</v>
       </c>
       <c r="E3">
-        <v>10.49470803862226</v>
+        <v>13.50085619410533</v>
       </c>
       <c r="F3">
-        <v>24.18886392161105</v>
+        <v>34.76823429456962</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.326385985368585</v>
+        <v>10.0182502811835</v>
       </c>
       <c r="K3">
-        <v>11.36394985236123</v>
+        <v>10.13360073497342</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.50190687897053</v>
+        <v>26.4837929842765</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,28 +503,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.17269723475892</v>
+        <v>10.53302183520635</v>
       </c>
       <c r="C4">
-        <v>6.962604476040872</v>
+        <v>4.234880977079799</v>
       </c>
       <c r="D4">
-        <v>6.800847997101076</v>
+        <v>8.762985515714593</v>
       </c>
       <c r="E4">
-        <v>10.1909969072035</v>
+        <v>13.4631686560127</v>
       </c>
       <c r="F4">
-        <v>24.03207708193745</v>
+        <v>34.81645626696238</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.265323983507279</v>
+        <v>10.02423992581137</v>
       </c>
       <c r="K4">
-        <v>10.9010413305964</v>
+        <v>10.01547233748019</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.53874662547808</v>
+        <v>26.54431504987409</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,28 +544,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.92496726674015</v>
+        <v>10.46296495252434</v>
       </c>
       <c r="C5">
-        <v>6.861028202182215</v>
+        <v>4.178850349714833</v>
       </c>
       <c r="D5">
-        <v>6.699354693584518</v>
+        <v>8.74708901222974</v>
       </c>
       <c r="E5">
-        <v>10.06602840846941</v>
+        <v>13.44849594336944</v>
       </c>
       <c r="F5">
-        <v>23.97323702828337</v>
+        <v>34.83818776045587</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.241139896656471</v>
+        <v>10.02708004871977</v>
       </c>
       <c r="K5">
-        <v>10.70656191112503</v>
+        <v>9.967309631941427</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.55747323911245</v>
+        <v>26.57037491010158</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,28 +585,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.88333708988982</v>
+        <v>10.45131433700268</v>
       </c>
       <c r="C6">
-        <v>6.844008730262899</v>
+        <v>4.169459925273874</v>
       </c>
       <c r="D6">
-        <v>6.682389457170072</v>
+        <v>8.744470137863351</v>
       </c>
       <c r="E6">
-        <v>10.04521041997744</v>
+        <v>13.44610127941544</v>
       </c>
       <c r="F6">
-        <v>23.96376877277251</v>
+        <v>34.84192177841585</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.237166679766739</v>
+        <v>10.0275757718844</v>
       </c>
       <c r="K6">
-        <v>10.67391731676773</v>
+        <v>9.959312621812147</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.56080240404493</v>
+        <v>26.57478639622617</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,28 +626,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.16938940926478</v>
+        <v>10.53207828158484</v>
       </c>
       <c r="C7">
-        <v>6.961244874800262</v>
+        <v>4.234131166191173</v>
       </c>
       <c r="D7">
-        <v>6.799486840082071</v>
+        <v>8.762769749157915</v>
       </c>
       <c r="E7">
-        <v>10.18931616076195</v>
+        <v>13.46296798453069</v>
       </c>
       <c r="F7">
-        <v>24.03126322432071</v>
+        <v>34.81674092756337</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.264994983528024</v>
+        <v>10.0242766116644</v>
       </c>
       <c r="K7">
-        <v>10.89844210419077</v>
+        <v>10.01482281401891</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.53898435338287</v>
+        <v>26.54466085130588</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,28 +667,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.36002227925494</v>
+        <v>10.88515218942337</v>
       </c>
       <c r="C8">
-        <v>7.455896724436744</v>
+        <v>4.506587323250848</v>
       </c>
       <c r="D8">
-        <v>7.299023461942128</v>
+        <v>8.846437222846431</v>
       </c>
       <c r="E8">
-        <v>10.81417451867883</v>
+        <v>13.5433804046697</v>
       </c>
       <c r="F8">
-        <v>24.37370764777879</v>
+        <v>34.72390216692591</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.393903064203138</v>
+        <v>10.01322285175264</v>
       </c>
       <c r="K8">
-        <v>11.83785144811884</v>
+        <v>10.25939523624328</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.47574659569733</v>
+        <v>26.42399248533813</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,28 +708,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.4402099680829</v>
+        <v>11.55894305067962</v>
       </c>
       <c r="C9">
-        <v>8.340927712672585</v>
+        <v>4.991776519014489</v>
       </c>
       <c r="D9">
-        <v>8.210327168631874</v>
+        <v>9.020017839318291</v>
       </c>
       <c r="E9">
-        <v>11.98933820240204</v>
+        <v>13.72172295503272</v>
       </c>
       <c r="F9">
-        <v>25.21110830993233</v>
+        <v>34.60782430427126</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.667843772172753</v>
+        <v>10.00412055979892</v>
       </c>
       <c r="K9">
-        <v>13.49390457795533</v>
+        <v>10.73359960016869</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.48134141466608</v>
+        <v>26.23165078213475</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,28 +749,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.81629179007497</v>
+        <v>12.03722541322798</v>
       </c>
       <c r="C10">
-        <v>8.937349326939751</v>
+        <v>5.316523339522027</v>
       </c>
       <c r="D10">
-        <v>8.834095089540432</v>
+        <v>9.152438314685686</v>
       </c>
       <c r="E10">
-        <v>12.81491313163635</v>
+        <v>13.86450710326222</v>
       </c>
       <c r="F10">
-        <v>25.9313626334626</v>
+        <v>34.56297518525514</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.881243153736699</v>
+        <v>10.00507235230126</v>
       </c>
       <c r="K10">
-        <v>14.5970122813777</v>
+        <v>11.07527318183077</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.57449204516507</v>
+        <v>26.11750666208516</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,28 +790,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.40995559794395</v>
+        <v>12.25014878960479</v>
       </c>
       <c r="C11">
-        <v>9.19675881982414</v>
+        <v>5.457093768452164</v>
       </c>
       <c r="D11">
-        <v>9.107353956837883</v>
+        <v>9.213542207880879</v>
       </c>
       <c r="E11">
-        <v>13.1811772442366</v>
+        <v>13.93182211561508</v>
       </c>
       <c r="F11">
-        <v>26.28243786682062</v>
+        <v>34.55138281419045</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.980799859012317</v>
+        <v>10.00715630411976</v>
       </c>
       <c r="K11">
-        <v>15.07435280543653</v>
+        <v>11.2285694728995</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.6383491011375</v>
+        <v>26.07151366382426</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,28 +831,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.63017295340136</v>
+        <v>12.33003226294401</v>
       </c>
       <c r="C12">
-        <v>9.293268614842601</v>
+        <v>5.509276886782436</v>
       </c>
       <c r="D12">
-        <v>9.20928909141179</v>
+        <v>9.236787980637578</v>
       </c>
       <c r="E12">
-        <v>13.31846899138696</v>
+        <v>13.95763483059312</v>
       </c>
       <c r="F12">
-        <v>26.4187869507329</v>
+        <v>34.54826113960534</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.018843445674859</v>
+        <v>10.00818196254253</v>
       </c>
       <c r="K12">
-        <v>15.25161403977898</v>
+        <v>11.28625910274023</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.66579393063278</v>
+        <v>26.0549529921021</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,28 +872,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.58294840714467</v>
+        <v>12.3128622689701</v>
       </c>
       <c r="C13">
-        <v>9.272560235737801</v>
+        <v>5.498085179962215</v>
       </c>
       <c r="D13">
-        <v>9.187404528560663</v>
+        <v>9.231777103428254</v>
       </c>
       <c r="E13">
-        <v>13.28896412169476</v>
+        <v>13.95206156713824</v>
       </c>
       <c r="F13">
-        <v>26.38926980161917</v>
+        <v>34.54887703675679</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.010634988054831</v>
+        <v>10.00795056534113</v>
       </c>
       <c r="K13">
-        <v>15.21359279215197</v>
+        <v>11.27385145784371</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.65973528933875</v>
+        <v>26.05848151872897</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,28 +913,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.42816466647971</v>
+        <v>12.25673622195429</v>
       </c>
       <c r="C14">
-        <v>9.204733308144677</v>
+        <v>5.461407999152593</v>
       </c>
       <c r="D14">
-        <v>9.115771276667466</v>
+        <v>9.215452605751672</v>
       </c>
       <c r="E14">
-        <v>13.19250079525831</v>
+        <v>13.93393939324786</v>
       </c>
       <c r="F14">
-        <v>26.29358696943905</v>
+        <v>34.55110057289701</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.983922910665241</v>
+        <v>10.00723595119376</v>
       </c>
       <c r="K14">
-        <v>15.08900613820403</v>
+        <v>11.23332315209587</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.64054060438321</v>
+        <v>26.07013403812778</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,28 +954,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.33275913425641</v>
+        <v>12.22225806195776</v>
       </c>
       <c r="C15">
-        <v>9.162962767376742</v>
+        <v>5.438805216172656</v>
       </c>
       <c r="D15">
-        <v>9.071692229955257</v>
+        <v>9.205466804740606</v>
       </c>
       <c r="E15">
-        <v>13.13322959174033</v>
+        <v>13.92288043680712</v>
       </c>
       <c r="F15">
-        <v>26.23542281364258</v>
+        <v>34.55262772224332</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.967605378897693</v>
+        <v>10.00682900141034</v>
       </c>
       <c r="K15">
-        <v>15.01223851629862</v>
+        <v>11.20844992506682</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.62921346393041</v>
+        <v>26.07738308741204</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,28 +995,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.77684891558008</v>
+        <v>12.0232100447516</v>
       </c>
       <c r="C16">
-        <v>8.920155644820364</v>
+        <v>5.307191025265074</v>
       </c>
       <c r="D16">
-        <v>8.816022723900749</v>
+        <v>9.14846095946986</v>
       </c>
       <c r="E16">
-        <v>12.79078366931556</v>
+        <v>13.86015393903859</v>
       </c>
       <c r="F16">
-        <v>25.90889363461006</v>
+        <v>34.56391017506321</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.874785653321756</v>
+        <v>10.00496930909481</v>
       </c>
       <c r="K16">
-        <v>14.56532624761855</v>
+        <v>11.06520733722165</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.57076606210116</v>
+        <v>26.12063202522345</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,28 +1036,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.42757752326547</v>
+        <v>11.89985253210395</v>
       </c>
       <c r="C17">
-        <v>8.768142056043015</v>
+        <v>5.224602246393103</v>
       </c>
       <c r="D17">
-        <v>8.656462652519107</v>
+        <v>9.113698993601888</v>
       </c>
       <c r="E17">
-        <v>12.57826968032066</v>
+        <v>13.82226580654793</v>
       </c>
       <c r="F17">
-        <v>25.71460611522753</v>
+        <v>34.57308913077918</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.818469332474082</v>
+        <v>10.00425070300985</v>
       </c>
       <c r="K17">
-        <v>14.28490598682018</v>
+        <v>10.9767472815146</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.54053720706646</v>
+        <v>26.14868521062034</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,28 +1077,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.22363985630273</v>
+        <v>11.82846711632168</v>
       </c>
       <c r="C18">
-        <v>8.679587434081599</v>
+        <v>5.176426432950647</v>
       </c>
       <c r="D18">
-        <v>8.563701177014677</v>
+        <v>9.093787310146258</v>
       </c>
       <c r="E18">
-        <v>12.4551653501109</v>
+        <v>13.80069695207794</v>
       </c>
       <c r="F18">
-        <v>25.60506053505739</v>
+        <v>34.57919780809888</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.786311842841447</v>
+        <v>10.00399283892407</v>
       </c>
       <c r="K18">
-        <v>14.12131082269501</v>
+        <v>10.925669679058</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.52516204432713</v>
+        <v>26.16537881760951</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,28 +1118,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.15406520223512</v>
+        <v>11.80422526160321</v>
       </c>
       <c r="C19">
-        <v>8.649412370898233</v>
+        <v>5.159999973854727</v>
       </c>
       <c r="D19">
-        <v>8.53212543656141</v>
+        <v>9.087060249333515</v>
       </c>
       <c r="E19">
-        <v>12.41333695292538</v>
+        <v>13.79343300536564</v>
       </c>
       <c r="F19">
-        <v>25.56834755655257</v>
+        <v>34.58140846291414</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.775464506529401</v>
+        <v>10.00393225617855</v>
       </c>
       <c r="K19">
-        <v>14.06552391494379</v>
+        <v>10.9083434060719</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.52029644548193</v>
+        <v>26.17112675967829</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,28 +1159,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.46507289979301</v>
+        <v>11.91302959003661</v>
       </c>
       <c r="C20">
-        <v>8.784440222448515</v>
+        <v>5.233463753594974</v>
       </c>
       <c r="D20">
-        <v>8.673550489751943</v>
+        <v>9.117391053266129</v>
       </c>
       <c r="E20">
-        <v>12.60098294493666</v>
+        <v>13.82627606815951</v>
       </c>
       <c r="F20">
-        <v>25.73506002915985</v>
+        <v>34.57202618599906</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.824440164139885</v>
+        <v>10.0043111165322</v>
       </c>
       <c r="K20">
-        <v>14.31499561241588</v>
+        <v>10.9861848667382</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.54354565104736</v>
+        <v>26.14564111258011</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,28 +1200,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.47375250627872</v>
+        <v>12.273242632958</v>
       </c>
       <c r="C21">
-        <v>9.224702535350787</v>
+        <v>5.472209544859568</v>
       </c>
       <c r="D21">
-        <v>9.1368537584853</v>
+        <v>9.220244739705581</v>
       </c>
       <c r="E21">
-        <v>13.22087298651449</v>
+        <v>13.93925371987459</v>
       </c>
       <c r="F21">
-        <v>26.32159867893575</v>
+        <v>34.5504130441273</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.99175966629779</v>
+        <v>10.00743943960374</v>
       </c>
       <c r="K21">
-        <v>15.12569496992644</v>
+        <v>11.24523749045782</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.64608859526539</v>
+        <v>26.06668815989954</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,28 +1241,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.10625640331782</v>
+        <v>12.50428313048737</v>
       </c>
       <c r="C22">
-        <v>9.502396230800292</v>
+        <v>5.622129781166121</v>
       </c>
       <c r="D22">
-        <v>9.430652952220155</v>
+        <v>9.288081475575465</v>
       </c>
       <c r="E22">
-        <v>13.6178008559041</v>
+        <v>14.01495934151377</v>
       </c>
       <c r="F22">
-        <v>26.72479350138343</v>
+        <v>34.54367912882082</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.103110600978588</v>
+        <v>10.01086204487732</v>
       </c>
       <c r="K22">
-        <v>15.63516367241508</v>
+        <v>11.41242021566395</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.73220843322841</v>
+        <v>26.02007781464031</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,28 +1282,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.77110280164483</v>
+        <v>12.38139709567186</v>
       </c>
       <c r="C23">
-        <v>9.355106748734109</v>
+        <v>5.542679194560701</v>
       </c>
       <c r="D23">
-        <v>9.274678067913884</v>
+        <v>9.251825127710413</v>
       </c>
       <c r="E23">
-        <v>13.40672185673206</v>
+        <v>13.97438885320457</v>
       </c>
       <c r="F23">
-        <v>26.50777315806713</v>
+        <v>34.54659660205261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.043501611238962</v>
+        <v>10.00890957091057</v>
       </c>
       <c r="K23">
-        <v>15.36510575356657</v>
+        <v>11.32340286451783</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.68443964354965</v>
+        <v>26.04449712345213</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,28 +1323,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.44813101511303</v>
+        <v>11.90707368624258</v>
       </c>
       <c r="C24">
-        <v>8.777075433607093</v>
+        <v>5.229459627760388</v>
       </c>
       <c r="D24">
-        <v>8.665828278757255</v>
+        <v>9.11572164304704</v>
       </c>
       <c r="E24">
-        <v>12.59071716068714</v>
+        <v>13.82446236242051</v>
       </c>
       <c r="F24">
-        <v>25.72580611158634</v>
+        <v>34.57250415311155</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.821740066398245</v>
+        <v>10.00428331985608</v>
       </c>
       <c r="K24">
-        <v>14.30139950060121</v>
+        <v>10.98191881789159</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.54217930534078</v>
+        <v>26.14701558812476</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.9044259023434</v>
+        <v>11.37923818799941</v>
       </c>
       <c r="C25">
-        <v>8.110845914965848</v>
+        <v>4.865981748179183</v>
       </c>
       <c r="D25">
-        <v>7.971593937538297</v>
+        <v>8.972133776867185</v>
       </c>
       <c r="E25">
-        <v>11.67762666515431</v>
+        <v>13.67134847090463</v>
       </c>
       <c r="F25">
-        <v>24.96636243269316</v>
+        <v>34.6321384361872</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.591548451189361</v>
+        <v>10.00523908326169</v>
       </c>
       <c r="K25">
-        <v>13.06587699524772</v>
+        <v>10.6062560605794</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.46491829098869</v>
+        <v>26.27892499449896</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_225/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_225/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.97977521793026</v>
+        <v>13.66528670649959</v>
       </c>
       <c r="C2">
-        <v>4.577166254778756</v>
+        <v>7.584269858305796</v>
       </c>
       <c r="D2">
-        <v>8.869783142047433</v>
+        <v>7.429943395163561</v>
       </c>
       <c r="E2">
-        <v>13.5665949532071</v>
+        <v>10.98040293609766</v>
       </c>
       <c r="F2">
-        <v>34.7032031195418</v>
+        <v>24.477543828717</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.01107948678177</v>
+        <v>6.430289375886988</v>
       </c>
       <c r="K2">
-        <v>10.32542902512413</v>
+        <v>12.07981811585742</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>26.3942880787376</v>
+        <v>17.46701179089647</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,28 +462,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.70408834924434</v>
+        <v>12.76055289387666</v>
       </c>
       <c r="C3">
-        <v>4.368798852750527</v>
+        <v>7.205572925689628</v>
       </c>
       <c r="D3">
-        <v>8.802820155991634</v>
+        <v>7.045188856918595</v>
       </c>
       <c r="E3">
-        <v>13.50085619410533</v>
+        <v>10.49470803862227</v>
       </c>
       <c r="F3">
-        <v>34.76823429456962</v>
+        <v>24.18886392161093</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.0182502811835</v>
+        <v>6.326385985368588</v>
       </c>
       <c r="K3">
-        <v>10.13360073497342</v>
+        <v>11.36394985236127</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.4837929842765</v>
+        <v>17.50190687897043</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,28 +503,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.53302183520635</v>
+        <v>12.17269723475895</v>
       </c>
       <c r="C4">
-        <v>4.234880977079799</v>
+        <v>6.962604476040816</v>
       </c>
       <c r="D4">
-        <v>8.762985515714593</v>
+        <v>6.800847997101064</v>
       </c>
       <c r="E4">
-        <v>13.4631686560127</v>
+        <v>10.19099690720351</v>
       </c>
       <c r="F4">
-        <v>34.81645626696238</v>
+        <v>24.03207708193731</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.02423992581137</v>
+        <v>6.265323983507326</v>
       </c>
       <c r="K4">
-        <v>10.01547233748019</v>
+        <v>10.90104133059642</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.54431504987409</v>
+        <v>17.53874662547805</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,28 +544,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.46296495252434</v>
+        <v>11.92496726674017</v>
       </c>
       <c r="C5">
-        <v>4.178850349714833</v>
+        <v>6.861028202182323</v>
       </c>
       <c r="D5">
-        <v>8.74708901222974</v>
+        <v>6.699354693584544</v>
       </c>
       <c r="E5">
-        <v>13.44849594336944</v>
+        <v>10.06602840846932</v>
       </c>
       <c r="F5">
-        <v>34.83818776045587</v>
+        <v>23.97323702828312</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.02708004871977</v>
+        <v>6.241139896656374</v>
       </c>
       <c r="K5">
-        <v>9.967309631941427</v>
+        <v>10.70656191112513</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.57037491010158</v>
+        <v>17.55747323911224</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,28 +585,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.45131433700268</v>
+        <v>11.88333708988988</v>
       </c>
       <c r="C6">
-        <v>4.169459925273874</v>
+        <v>6.844008730262886</v>
       </c>
       <c r="D6">
-        <v>8.744470137863351</v>
+        <v>6.682389457170157</v>
       </c>
       <c r="E6">
-        <v>13.44610127941544</v>
+        <v>10.04521041997748</v>
       </c>
       <c r="F6">
-        <v>34.84192177841585</v>
+        <v>23.96376877277254</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.0275757718844</v>
+        <v>6.23716667976674</v>
       </c>
       <c r="K6">
-        <v>9.959312621812147</v>
+        <v>10.67391731676776</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.57478639622617</v>
+        <v>17.56080240404489</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,28 +626,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.53207828158484</v>
+        <v>12.16938940926481</v>
       </c>
       <c r="C7">
-        <v>4.234131166191173</v>
+        <v>6.961244874800167</v>
       </c>
       <c r="D7">
-        <v>8.762769749157915</v>
+        <v>6.799486840082006</v>
       </c>
       <c r="E7">
-        <v>13.46296798453069</v>
+        <v>10.18931616076186</v>
       </c>
       <c r="F7">
-        <v>34.81674092756337</v>
+        <v>24.03126322432044</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.0242766116644</v>
+        <v>6.264994983527982</v>
       </c>
       <c r="K7">
-        <v>10.01482281401891</v>
+        <v>10.89844210419081</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.54466085130588</v>
+        <v>17.53898435338271</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,28 +667,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.88515218942337</v>
+        <v>13.36002227925501</v>
       </c>
       <c r="C8">
-        <v>4.506587323250848</v>
+        <v>7.455896724436532</v>
       </c>
       <c r="D8">
-        <v>8.846437222846431</v>
+        <v>7.299023461942096</v>
       </c>
       <c r="E8">
-        <v>13.5433804046697</v>
+        <v>10.81417451867881</v>
       </c>
       <c r="F8">
-        <v>34.72390216692591</v>
+        <v>24.37370764777873</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.01322285175264</v>
+        <v>6.39390306420314</v>
       </c>
       <c r="K8">
-        <v>10.25939523624328</v>
+        <v>11.83785144811885</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>26.42399248533813</v>
+        <v>17.47574659569731</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,28 +708,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.55894305067962</v>
+        <v>15.44020996808294</v>
       </c>
       <c r="C9">
-        <v>4.991776519014489</v>
+        <v>8.340927712672583</v>
       </c>
       <c r="D9">
-        <v>9.020017839318291</v>
+        <v>8.21032716863189</v>
       </c>
       <c r="E9">
-        <v>13.72172295503272</v>
+        <v>11.98933820240206</v>
       </c>
       <c r="F9">
-        <v>34.60782430427126</v>
+        <v>25.21110830993217</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.00412055979892</v>
+        <v>6.66784377217275</v>
       </c>
       <c r="K9">
-        <v>10.73359960016869</v>
+        <v>13.49390457795538</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>26.23165078213475</v>
+        <v>17.48134141466596</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,28 +749,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.03722541322798</v>
+        <v>16.81629179007506</v>
       </c>
       <c r="C10">
-        <v>5.316523339522027</v>
+        <v>8.937349326939541</v>
       </c>
       <c r="D10">
-        <v>9.152438314685686</v>
+        <v>8.834095089540476</v>
       </c>
       <c r="E10">
-        <v>13.86450710326222</v>
+        <v>12.81491313163638</v>
       </c>
       <c r="F10">
-        <v>34.56297518525514</v>
+        <v>25.93136263346242</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.00507235230126</v>
+        <v>6.881243153736725</v>
       </c>
       <c r="K10">
-        <v>11.07527318183077</v>
+        <v>14.59701228137773</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>26.11750666208516</v>
+        <v>17.57449204516488</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,28 +790,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.25014878960479</v>
+        <v>17.40995559794395</v>
       </c>
       <c r="C11">
-        <v>5.457093768452164</v>
+        <v>9.196758819824126</v>
       </c>
       <c r="D11">
-        <v>9.213542207880879</v>
+        <v>9.107353956837859</v>
       </c>
       <c r="E11">
-        <v>13.93182211561508</v>
+        <v>13.18117724423659</v>
       </c>
       <c r="F11">
-        <v>34.55138281419045</v>
+        <v>26.2824378668206</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.00715630411976</v>
+        <v>6.980799859012286</v>
       </c>
       <c r="K11">
-        <v>11.2285694728995</v>
+        <v>15.07435280543652</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>26.07151366382426</v>
+        <v>17.6383491011375</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,28 +831,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.33003226294401</v>
+        <v>17.6301729534014</v>
       </c>
       <c r="C12">
-        <v>5.509276886782436</v>
+        <v>9.293268614842615</v>
       </c>
       <c r="D12">
-        <v>9.236787980637578</v>
+        <v>9.209289091411815</v>
       </c>
       <c r="E12">
-        <v>13.95763483059312</v>
+        <v>13.31846899138697</v>
       </c>
       <c r="F12">
-        <v>34.54826113960534</v>
+        <v>26.41878695073289</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.00818196254253</v>
+        <v>7.018843445674841</v>
       </c>
       <c r="K12">
-        <v>11.28625910274023</v>
+        <v>15.25161403977901</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>26.0549529921021</v>
+        <v>17.6657939306327</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,28 +872,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.3128622689701</v>
+        <v>17.58294840714478</v>
       </c>
       <c r="C13">
-        <v>5.498085179962215</v>
+        <v>9.272560235737568</v>
       </c>
       <c r="D13">
-        <v>9.231777103428254</v>
+        <v>9.187404528560668</v>
       </c>
       <c r="E13">
-        <v>13.95206156713824</v>
+        <v>13.28896412169476</v>
       </c>
       <c r="F13">
-        <v>34.54887703675679</v>
+        <v>26.38926980161916</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.00795056534113</v>
+        <v>7.010634988054849</v>
       </c>
       <c r="K13">
-        <v>11.27385145784371</v>
+        <v>15.213592792152</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>26.05848151872897</v>
+        <v>17.65973528933871</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,28 +913,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.25673622195429</v>
+        <v>17.42816466647982</v>
       </c>
       <c r="C14">
-        <v>5.461407999152593</v>
+        <v>9.204733308144677</v>
       </c>
       <c r="D14">
-        <v>9.215452605751672</v>
+        <v>9.115771276667473</v>
       </c>
       <c r="E14">
-        <v>13.93393939324786</v>
+        <v>13.19250079525833</v>
       </c>
       <c r="F14">
-        <v>34.55110057289701</v>
+        <v>26.29358696943907</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.00723595119376</v>
+        <v>6.98392291066529</v>
       </c>
       <c r="K14">
-        <v>11.23332315209587</v>
+        <v>15.08900613820406</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>26.07013403812778</v>
+        <v>17.6405406043832</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,28 +954,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.22225806195776</v>
+        <v>17.33275913425636</v>
       </c>
       <c r="C15">
-        <v>5.438805216172656</v>
+        <v>9.162962767376905</v>
       </c>
       <c r="D15">
-        <v>9.205466804740606</v>
+        <v>9.071692229955294</v>
       </c>
       <c r="E15">
-        <v>13.92288043680712</v>
+        <v>13.13322959174034</v>
       </c>
       <c r="F15">
-        <v>34.55262772224332</v>
+        <v>26.23542281364246</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.00682900141034</v>
+        <v>6.967605378897695</v>
       </c>
       <c r="K15">
-        <v>11.20844992506682</v>
+        <v>15.01223851629861</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>26.07738308741204</v>
+        <v>17.62921346393029</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,28 +995,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.0232100447516</v>
+        <v>16.77684891558001</v>
       </c>
       <c r="C16">
-        <v>5.307191025265074</v>
+        <v>8.920155644820515</v>
       </c>
       <c r="D16">
-        <v>9.14846095946986</v>
+        <v>8.816022723900815</v>
       </c>
       <c r="E16">
-        <v>13.86015393903859</v>
+        <v>12.79078366931556</v>
       </c>
       <c r="F16">
-        <v>34.56391017506321</v>
+        <v>25.90889363461015</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.00496930909481</v>
+        <v>6.874785653321734</v>
       </c>
       <c r="K16">
-        <v>11.06520733722165</v>
+        <v>14.56532624761852</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>26.12063202522345</v>
+        <v>17.57076606210121</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,28 +1036,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.89985253210395</v>
+        <v>16.42757752326546</v>
       </c>
       <c r="C17">
-        <v>5.224602246393103</v>
+        <v>8.768142056042862</v>
       </c>
       <c r="D17">
-        <v>9.113698993601888</v>
+        <v>8.656462652519108</v>
       </c>
       <c r="E17">
-        <v>13.82226580654793</v>
+        <v>12.57826968032061</v>
       </c>
       <c r="F17">
-        <v>34.57308913077918</v>
+        <v>25.71460611522741</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.00425070300985</v>
+        <v>6.81846933247408</v>
       </c>
       <c r="K17">
-        <v>10.9767472815146</v>
+        <v>14.28490598682015</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>26.14868521062034</v>
+        <v>17.5405372070664</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,28 +1077,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.82846711632168</v>
+        <v>16.22363985630281</v>
       </c>
       <c r="C18">
-        <v>5.176426432950647</v>
+        <v>8.679587434081515</v>
       </c>
       <c r="D18">
-        <v>9.093787310146258</v>
+        <v>8.563701177014686</v>
       </c>
       <c r="E18">
-        <v>13.80069695207794</v>
+        <v>12.45516535011092</v>
       </c>
       <c r="F18">
-        <v>34.57919780809888</v>
+        <v>25.60506053505744</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.00399283892407</v>
+        <v>6.786311842841464</v>
       </c>
       <c r="K18">
-        <v>10.925669679058</v>
+        <v>14.12131082269505</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>26.16537881760951</v>
+        <v>17.52516204432718</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,28 +1118,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.80422526160321</v>
+        <v>16.15406520223515</v>
       </c>
       <c r="C19">
-        <v>5.159999973854727</v>
+        <v>8.649412370898233</v>
       </c>
       <c r="D19">
-        <v>9.087060249333515</v>
+        <v>8.532125436561362</v>
       </c>
       <c r="E19">
-        <v>13.79343300536564</v>
+        <v>12.41333695292534</v>
       </c>
       <c r="F19">
-        <v>34.58140846291414</v>
+        <v>25.56834755655244</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.00393225617855</v>
+        <v>6.775464506529384</v>
       </c>
       <c r="K19">
-        <v>10.9083434060719</v>
+        <v>14.0655239149438</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>26.17112675967829</v>
+        <v>17.52029644548184</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,28 +1159,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.91302959003661</v>
+        <v>16.46507289979294</v>
       </c>
       <c r="C20">
-        <v>5.233463753594974</v>
+        <v>8.784440222448824</v>
       </c>
       <c r="D20">
-        <v>9.117391053266129</v>
+        <v>8.673550489751911</v>
       </c>
       <c r="E20">
-        <v>13.82627606815951</v>
+        <v>12.60098294493661</v>
       </c>
       <c r="F20">
-        <v>34.57202618599906</v>
+        <v>25.73506002915985</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.0043111165322</v>
+        <v>6.824440164139816</v>
       </c>
       <c r="K20">
-        <v>10.9861848667382</v>
+        <v>14.31499561241589</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>26.14564111258011</v>
+        <v>17.5435456510474</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,28 +1200,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.273242632958</v>
+        <v>17.47375250627871</v>
       </c>
       <c r="C21">
-        <v>5.472209544859568</v>
+        <v>9.224702535351</v>
       </c>
       <c r="D21">
-        <v>9.220244739705581</v>
+        <v>9.136853758485305</v>
       </c>
       <c r="E21">
-        <v>13.93925371987459</v>
+        <v>13.22087298651451</v>
       </c>
       <c r="F21">
-        <v>34.5504130441273</v>
+        <v>26.3215986789357</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.00743943960374</v>
+        <v>6.991759666297832</v>
       </c>
       <c r="K21">
-        <v>11.24523749045782</v>
+        <v>15.12569496992647</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>26.06668815989954</v>
+        <v>17.64608859526534</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,28 +1241,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.50428313048737</v>
+        <v>18.10625640331777</v>
       </c>
       <c r="C22">
-        <v>5.622129781166121</v>
+        <v>9.502396230800491</v>
       </c>
       <c r="D22">
-        <v>9.288081475575465</v>
+        <v>9.430652952220175</v>
       </c>
       <c r="E22">
-        <v>14.01495934151377</v>
+        <v>13.61780085590411</v>
       </c>
       <c r="F22">
-        <v>34.54367912882082</v>
+        <v>26.72479350138335</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.01086204487732</v>
+        <v>7.103110600978601</v>
       </c>
       <c r="K22">
-        <v>11.41242021566395</v>
+        <v>15.63516367241508</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>26.02007781464031</v>
+        <v>17.73220843322837</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,28 +1282,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.38139709567186</v>
+        <v>17.77110280164487</v>
       </c>
       <c r="C23">
-        <v>5.542679194560701</v>
+        <v>9.355106748733814</v>
       </c>
       <c r="D23">
-        <v>9.251825127710413</v>
+        <v>9.274678067913909</v>
       </c>
       <c r="E23">
-        <v>13.97438885320457</v>
+        <v>13.40672185673207</v>
       </c>
       <c r="F23">
-        <v>34.54659660205261</v>
+        <v>26.50777315806722</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.00890957091057</v>
+        <v>7.043501611238906</v>
       </c>
       <c r="K23">
-        <v>11.32340286451783</v>
+        <v>15.36510575356654</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>26.04449712345213</v>
+        <v>17.68443964354969</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,28 +1323,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.90707368624258</v>
+        <v>16.44813101511303</v>
       </c>
       <c r="C24">
-        <v>5.229459627760388</v>
+        <v>8.777075433607026</v>
       </c>
       <c r="D24">
-        <v>9.11572164304704</v>
+        <v>8.665828278757195</v>
       </c>
       <c r="E24">
-        <v>13.82446236242051</v>
+        <v>12.5907171606871</v>
       </c>
       <c r="F24">
-        <v>34.57250415311155</v>
+        <v>25.7258061115863</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.00428331985608</v>
+        <v>6.821740066398255</v>
       </c>
       <c r="K24">
-        <v>10.98191881789159</v>
+        <v>14.30139950060117</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>26.14701558812476</v>
+        <v>17.54217930534083</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.37923818799941</v>
+        <v>14.90442590234343</v>
       </c>
       <c r="C25">
-        <v>4.865981748179183</v>
+        <v>8.110845914965804</v>
       </c>
       <c r="D25">
-        <v>8.972133776867185</v>
+        <v>7.971593937538322</v>
       </c>
       <c r="E25">
-        <v>13.67134847090463</v>
+        <v>11.67762666515425</v>
       </c>
       <c r="F25">
-        <v>34.6321384361872</v>
+        <v>24.96636243269297</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.00523908326169</v>
+        <v>6.591548451189285</v>
       </c>
       <c r="K25">
-        <v>10.6062560605794</v>
+        <v>13.06587699524772</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>26.27892499449896</v>
+        <v>17.46491829098856</v>
       </c>
     </row>
   </sheetData>
